--- a/data/coviprev22.xlsx
+++ b/data/coviprev22.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="49">
   <si>
     <t>fra</t>
   </si>
@@ -35,69 +35,6 @@
   </si>
   <si>
     <t>fr</t>
-  </si>
-  <si>
-    <t>2020/04/01</t>
-  </si>
-  <si>
-    <t>2020/04/16</t>
-  </si>
-  <si>
-    <t>2020/04/22</t>
-  </si>
-  <si>
-    <t>2020/04/30</t>
-  </si>
-  <si>
-    <t>2020/05/06</t>
-  </si>
-  <si>
-    <t>2020/05/15</t>
-  </si>
-  <si>
-    <t>2020/05/20</t>
-  </si>
-  <si>
-    <t>2020/05/29</t>
-  </si>
-  <si>
-    <t>2020/06/10</t>
-  </si>
-  <si>
-    <t>2020/06/24</t>
-  </si>
-  <si>
-    <t>2020/07/08</t>
-  </si>
-  <si>
-    <t>2020/07/22</t>
-  </si>
-  <si>
-    <t>2020/08/26</t>
-  </si>
-  <si>
-    <t>2020/09/23</t>
-  </si>
-  <si>
-    <t>2020/10/21</t>
-  </si>
-  <si>
-    <t>2020/11/06</t>
-  </si>
-  <si>
-    <t>2020/11/25</t>
-  </si>
-  <si>
-    <t>2020/12/16</t>
-  </si>
-  <si>
-    <t>2021/01/20</t>
-  </si>
-  <si>
-    <t>2021/02/17</t>
-  </si>
-  <si>
-    <t>2021/03/17</t>
   </si>
   <si>
     <t>sexe</t>
@@ -165,11 +102,77 @@
   <si>
     <t>Provence-Alpes-Côte d'Azur</t>
   </si>
+  <si>
+    <t>2020/04/01</t>
+  </si>
+  <si>
+    <t>2020/04/16</t>
+  </si>
+  <si>
+    <t>2020/04/22</t>
+  </si>
+  <si>
+    <t>2020/04/30</t>
+  </si>
+  <si>
+    <t>2020/05/06</t>
+  </si>
+  <si>
+    <t>2020/05/15</t>
+  </si>
+  <si>
+    <t>2020/05/20</t>
+  </si>
+  <si>
+    <t>2020/05/29</t>
+  </si>
+  <si>
+    <t>2020/06/10</t>
+  </si>
+  <si>
+    <t>2020/06/24</t>
+  </si>
+  <si>
+    <t>2020/07/08</t>
+  </si>
+  <si>
+    <t>2020/07/22</t>
+  </si>
+  <si>
+    <t>2020/08/26</t>
+  </si>
+  <si>
+    <t>2020/09/23</t>
+  </si>
+  <si>
+    <t>2020/10/21</t>
+  </si>
+  <si>
+    <t>2020/11/06</t>
+  </si>
+  <si>
+    <t>2020/11/25</t>
+  </si>
+  <si>
+    <t>2020/12/16</t>
+  </si>
+  <si>
+    <t>2021/01/20</t>
+  </si>
+  <si>
+    <t>2021/02/17</t>
+  </si>
+  <si>
+    <t>2021/03/17</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -222,11 +225,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,8 +552,8 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="B2" s="2">
+        <v>43922</v>
       </c>
       <c r="C2">
         <v>21.5</v>
@@ -565,8 +569,8 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="B3" s="2">
+        <v>43937</v>
       </c>
       <c r="C3">
         <v>18.1</v>
@@ -582,8 +586,8 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="B4" s="2">
+        <v>43943</v>
       </c>
       <c r="C4">
         <v>18.9</v>
@@ -599,8 +603,8 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="B5" s="2">
+        <v>43951</v>
       </c>
       <c r="C5">
         <v>18.1</v>
@@ -616,8 +620,8 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
+      <c r="B6" s="2">
+        <v>43957</v>
       </c>
       <c r="C6">
         <v>18.4</v>
@@ -633,8 +637,8 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
+      <c r="B7" s="2">
+        <v>43966</v>
       </c>
       <c r="C7">
         <v>17.6</v>
@@ -650,8 +654,8 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
+      <c r="B8" s="2">
+        <v>43971</v>
       </c>
       <c r="C8">
         <v>16.9</v>
@@ -667,8 +671,8 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
+      <c r="B9" s="2">
+        <v>43980</v>
       </c>
       <c r="C9">
         <v>16.5</v>
@@ -684,8 +688,8 @@
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
+      <c r="B10" s="2">
+        <v>43992</v>
       </c>
       <c r="C10">
         <v>15.9</v>
@@ -701,8 +705,8 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="B11" s="2">
+        <v>44006</v>
       </c>
       <c r="C11">
         <v>15.1</v>
@@ -718,8 +722,8 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
+      <c r="B12" s="2">
+        <v>44020</v>
       </c>
       <c r="C12">
         <v>17</v>
@@ -735,8 +739,8 @@
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
-        <v>17</v>
+      <c r="B13" s="2">
+        <v>44034</v>
       </c>
       <c r="C13">
         <v>17.5633</v>
@@ -752,8 +756,8 @@
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
-        <v>18</v>
+      <c r="B14" s="2">
+        <v>44069</v>
       </c>
       <c r="C14">
         <v>17.5</v>
@@ -769,8 +773,8 @@
       <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
-        <v>19</v>
+      <c r="B15" s="2">
+        <v>44097</v>
       </c>
       <c r="C15">
         <v>18</v>
@@ -786,8 +790,8 @@
       <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
-        <v>20</v>
+      <c r="B16" s="2">
+        <v>44125</v>
       </c>
       <c r="C16">
         <v>19.1</v>
@@ -803,8 +807,8 @@
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" t="s">
-        <v>21</v>
+      <c r="B17" s="2">
+        <v>44141</v>
       </c>
       <c r="C17">
         <v>20.8</v>
@@ -820,8 +824,8 @@
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" t="s">
-        <v>22</v>
+      <c r="B18" s="2">
+        <v>44160</v>
       </c>
       <c r="C18">
         <v>18.5</v>
@@ -837,8 +841,8 @@
       <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B19" t="s">
-        <v>23</v>
+      <c r="B19" s="2">
+        <v>44181</v>
       </c>
       <c r="C19">
         <v>20.3</v>
@@ -854,8 +858,8 @@
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" t="s">
-        <v>24</v>
+      <c r="B20" s="2">
+        <v>44216</v>
       </c>
       <c r="C20">
         <v>19.2</v>
@@ -871,8 +875,8 @@
       <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
+      <c r="B21" s="2">
+        <v>44244</v>
       </c>
       <c r="C21">
         <v>22.7</v>
@@ -888,8 +892,8 @@
       <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
-        <v>26</v>
+      <c r="B22" s="2">
+        <v>44272</v>
       </c>
       <c r="C22">
         <v>20.7</v>
@@ -916,7 +920,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -933,10 +937,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43922</v>
       </c>
       <c r="C2">
         <v>26</v>
@@ -950,10 +954,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43922</v>
       </c>
       <c r="C3">
         <v>16.6</v>
@@ -967,10 +971,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
         <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43937</v>
       </c>
       <c r="C4">
         <v>21.5</v>
@@ -984,10 +988,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43937</v>
       </c>
       <c r="C5">
         <v>14.4</v>
@@ -1001,10 +1005,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43943</v>
       </c>
       <c r="C6">
         <v>23.7</v>
@@ -1018,10 +1022,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
         <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43943</v>
       </c>
       <c r="C7">
         <v>13.6</v>
@@ -1035,10 +1039,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43951</v>
       </c>
       <c r="C8">
         <v>21.2</v>
@@ -1052,10 +1056,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43951</v>
       </c>
       <c r="C9">
         <v>14.7</v>
@@ -1069,10 +1073,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43957</v>
       </c>
       <c r="C10">
         <v>21.4</v>
@@ -1086,10 +1090,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43957</v>
       </c>
       <c r="C11">
         <v>15.1</v>
@@ -1103,10 +1107,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43966</v>
       </c>
       <c r="C12">
         <v>19.3</v>
@@ -1120,10 +1124,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43966</v>
       </c>
       <c r="C13">
         <v>15.7</v>
@@ -1137,10 +1141,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43971</v>
       </c>
       <c r="C14">
         <v>20.5</v>
@@ -1154,10 +1158,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43971</v>
       </c>
       <c r="C15">
         <v>12.9</v>
@@ -1171,10 +1175,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43980</v>
       </c>
       <c r="C16">
         <v>19.3</v>
@@ -1188,10 +1192,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43980</v>
       </c>
       <c r="C17">
         <v>13.4</v>
@@ -1205,10 +1209,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43992</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1222,10 +1226,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B19" s="2">
+        <v>43992</v>
       </c>
       <c r="C19">
         <v>14.8</v>
@@ -1239,10 +1243,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44006</v>
       </c>
       <c r="C20">
         <v>17.7</v>
@@ -1256,10 +1260,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44006</v>
       </c>
       <c r="C21">
         <v>12.2</v>
@@ -1273,10 +1277,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44020</v>
       </c>
       <c r="C22">
         <v>21.9</v>
@@ -1290,10 +1294,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44020</v>
       </c>
       <c r="C23">
         <v>11.7</v>
@@ -1307,10 +1311,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44034</v>
       </c>
       <c r="C24">
         <v>22.23151</v>
@@ -1324,10 +1328,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44034</v>
       </c>
       <c r="C25">
         <v>12.42423</v>
@@ -1341,10 +1345,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44069</v>
       </c>
       <c r="C26">
         <v>21.2</v>
@@ -1358,10 +1362,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44069</v>
       </c>
       <c r="C27">
         <v>13.4</v>
@@ -1375,10 +1379,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44097</v>
       </c>
       <c r="C28">
         <v>21</v>
@@ -1392,10 +1396,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44097</v>
       </c>
       <c r="C29">
         <v>14.8</v>
@@ -1409,10 +1413,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44125</v>
       </c>
       <c r="C30">
         <v>22.9</v>
@@ -1426,10 +1430,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44125</v>
       </c>
       <c r="C31">
         <v>14.9</v>
@@ -1443,10 +1447,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44141</v>
       </c>
       <c r="C32">
         <v>25</v>
@@ -1460,10 +1464,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44141</v>
       </c>
       <c r="C33">
         <v>16.2</v>
@@ -1477,10 +1481,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44160</v>
       </c>
       <c r="C34">
         <v>22.7</v>
@@ -1494,10 +1498,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44160</v>
       </c>
       <c r="C35">
         <v>14</v>
@@ -1511,10 +1515,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44181</v>
       </c>
       <c r="C36">
         <v>25.4</v>
@@ -1528,10 +1532,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="B37" s="2">
+        <v>44181</v>
       </c>
       <c r="C37">
         <v>14.6</v>
@@ -1545,10 +1549,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="B38" s="2">
+        <v>44216</v>
       </c>
       <c r="C38">
         <v>21.9</v>
@@ -1562,10 +1566,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="B39" s="2">
+        <v>44216</v>
       </c>
       <c r="C39">
         <v>16.3</v>
@@ -1579,10 +1583,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" t="s">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44244</v>
       </c>
       <c r="C40">
         <v>25.7</v>
@@ -1596,10 +1600,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44244</v>
       </c>
       <c r="C41">
         <v>19.4</v>
@@ -1613,10 +1617,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44272</v>
       </c>
       <c r="C42">
         <v>24.9</v>
@@ -1630,10 +1634,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44272</v>
       </c>
       <c r="C43">
         <v>16.2</v>
@@ -1660,7 +1664,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1677,10 +1681,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43922</v>
       </c>
       <c r="C2">
         <v>22.5</v>
@@ -1694,10 +1698,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43922</v>
       </c>
       <c r="C3">
         <v>25.9</v>
@@ -1711,10 +1715,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43922</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -1728,10 +1732,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43922</v>
       </c>
       <c r="C5">
         <v>18.4</v>
@@ -1745,10 +1749,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43922</v>
       </c>
       <c r="C6">
         <v>17.7</v>
@@ -1762,10 +1766,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43937</v>
       </c>
       <c r="C7">
         <v>24.2</v>
@@ -1779,10 +1783,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43937</v>
       </c>
       <c r="C8">
         <v>20.3</v>
@@ -1796,10 +1800,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43937</v>
       </c>
       <c r="C9">
         <v>20.6</v>
@@ -1813,10 +1817,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43937</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -1830,10 +1834,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43937</v>
       </c>
       <c r="C11">
         <v>13.8</v>
@@ -1847,10 +1851,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43943</v>
       </c>
       <c r="C12">
         <v>28.2</v>
@@ -1864,10 +1868,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43943</v>
       </c>
       <c r="C13">
         <v>18.6</v>
@@ -1881,10 +1885,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43943</v>
       </c>
       <c r="C14">
         <v>20.8</v>
@@ -1898,10 +1902,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43943</v>
       </c>
       <c r="C15">
         <v>15.9</v>
@@ -1915,10 +1919,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43943</v>
       </c>
       <c r="C16">
         <v>16.1</v>
@@ -1932,10 +1936,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43951</v>
       </c>
       <c r="C17">
         <v>26.4</v>
@@ -1949,10 +1953,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43951</v>
       </c>
       <c r="C18">
         <v>22.6</v>
@@ -1966,10 +1970,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B19" s="2">
+        <v>43951</v>
       </c>
       <c r="C19">
         <v>21.3</v>
@@ -1983,10 +1987,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43951</v>
       </c>
       <c r="C20">
         <v>14</v>
@@ -2000,10 +2004,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="2">
+        <v>43951</v>
       </c>
       <c r="C21">
         <v>12.5</v>
@@ -2017,10 +2021,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
         <v>10</v>
+      </c>
+      <c r="B22" s="2">
+        <v>43957</v>
       </c>
       <c r="C22">
         <v>24.8</v>
@@ -2034,10 +2038,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B23" s="2">
+        <v>43957</v>
       </c>
       <c r="C23">
         <v>20.3</v>
@@ -2051,10 +2055,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B24" s="2">
+        <v>43957</v>
       </c>
       <c r="C24">
         <v>20.6</v>
@@ -2068,10 +2072,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B25" s="2">
+        <v>43957</v>
       </c>
       <c r="C25">
         <v>16</v>
@@ -2085,10 +2089,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B26" s="2">
+        <v>43957</v>
       </c>
       <c r="C26">
         <v>14.6</v>
@@ -2102,10 +2106,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B27" s="2">
+        <v>43966</v>
       </c>
       <c r="C27">
         <v>23.1</v>
@@ -2119,10 +2123,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
         <v>11</v>
+      </c>
+      <c r="B28" s="2">
+        <v>43966</v>
       </c>
       <c r="C28">
         <v>22</v>
@@ -2136,10 +2140,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B29" s="2">
+        <v>43966</v>
       </c>
       <c r="C29">
         <v>18.4</v>
@@ -2153,10 +2157,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="B30" s="2">
+        <v>43966</v>
       </c>
       <c r="C30">
         <v>15</v>
@@ -2170,10 +2174,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="B31" s="2">
+        <v>43966</v>
       </c>
       <c r="C31">
         <v>14.3</v>
@@ -2187,10 +2191,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B32" s="2">
+        <v>43971</v>
       </c>
       <c r="C32">
         <v>22.8</v>
@@ -2204,10 +2208,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B33" s="2">
+        <v>43971</v>
       </c>
       <c r="C33">
         <v>20.9</v>
@@ -2221,10 +2225,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
         <v>12</v>
+      </c>
+      <c r="B34" s="2">
+        <v>43971</v>
       </c>
       <c r="C34">
         <v>23.7</v>
@@ -2238,10 +2242,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B35" s="2">
+        <v>43971</v>
       </c>
       <c r="C35">
         <v>12.7</v>
@@ -2255,10 +2259,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="B36" s="2">
+        <v>43971</v>
       </c>
       <c r="C36">
         <v>9</v>
@@ -2272,10 +2276,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B37" s="2">
+        <v>43980</v>
       </c>
       <c r="C37">
         <v>18.5</v>
@@ -2289,10 +2293,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B38" s="2">
+        <v>43980</v>
       </c>
       <c r="C38">
         <v>19.9</v>
@@ -2306,10 +2310,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B39" s="2">
+        <v>43980</v>
       </c>
       <c r="C39">
         <v>22.1</v>
@@ -2323,10 +2327,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" t="s">
         <v>13</v>
+      </c>
+      <c r="B40" s="2">
+        <v>43980</v>
       </c>
       <c r="C40">
         <v>12.9</v>
@@ -2340,10 +2344,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B41" s="2">
+        <v>43980</v>
       </c>
       <c r="C41">
         <v>11.2</v>
@@ -2357,10 +2361,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="B42" s="2">
+        <v>43992</v>
       </c>
       <c r="C42">
         <v>23.4</v>
@@ -2374,10 +2378,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B43" s="2">
+        <v>43992</v>
       </c>
       <c r="C43">
         <v>16.2</v>
@@ -2391,10 +2395,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B44" s="2">
+        <v>43992</v>
       </c>
       <c r="C44">
         <v>20.9</v>
@@ -2408,10 +2412,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B45" s="2">
+        <v>43992</v>
       </c>
       <c r="C45">
         <v>14.6</v>
@@ -2425,10 +2429,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" t="s">
         <v>14</v>
+      </c>
+      <c r="B46" s="2">
+        <v>43992</v>
       </c>
       <c r="C46">
         <v>8.699999999999999</v>
@@ -2442,10 +2446,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44006</v>
       </c>
       <c r="C47">
         <v>19.5</v>
@@ -2459,10 +2463,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44006</v>
       </c>
       <c r="C48">
         <v>21.6</v>
@@ -2476,10 +2480,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="B49" s="2">
+        <v>44006</v>
       </c>
       <c r="C49">
         <v>17.1</v>
@@ -2493,10 +2497,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B50" s="2">
+        <v>44006</v>
       </c>
       <c r="C50">
         <v>11.9</v>
@@ -2510,10 +2514,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>35</v>
-      </c>
-      <c r="B51" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B51" s="2">
+        <v>44006</v>
       </c>
       <c r="C51">
         <v>10.1</v>
@@ -2527,10 +2531,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44020</v>
       </c>
       <c r="C52">
         <v>31.5</v>
@@ -2544,10 +2548,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>32</v>
-      </c>
-      <c r="B53" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="B53" s="2">
+        <v>44020</v>
       </c>
       <c r="C53">
         <v>19.3</v>
@@ -2561,10 +2565,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="B54" s="2">
+        <v>44020</v>
       </c>
       <c r="C54">
         <v>20.8</v>
@@ -2578,10 +2582,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B55" s="2">
+        <v>44020</v>
       </c>
       <c r="C55">
         <v>13.4</v>
@@ -2595,10 +2599,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>35</v>
-      </c>
-      <c r="B56" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="B56" s="2">
+        <v>44020</v>
       </c>
       <c r="C56">
         <v>9.1</v>
@@ -2612,10 +2616,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44034</v>
       </c>
       <c r="C57">
         <v>21.44422</v>
@@ -2629,10 +2633,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="B58" s="2">
+        <v>44034</v>
       </c>
       <c r="C58">
         <v>26.88009</v>
@@ -2646,10 +2650,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="B59" s="2">
+        <v>44034</v>
       </c>
       <c r="C59">
         <v>18.2046</v>
@@ -2663,10 +2667,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="B60" s="2">
+        <v>44034</v>
       </c>
       <c r="C60">
         <v>15.98563</v>
@@ -2680,10 +2684,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>35</v>
-      </c>
-      <c r="B61" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B61" s="2">
+        <v>44034</v>
       </c>
       <c r="C61">
         <v>10.83075</v>
@@ -2697,10 +2701,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B62" s="2">
+        <v>44069</v>
       </c>
       <c r="C62">
         <v>25.2</v>
@@ -2714,10 +2718,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>32</v>
-      </c>
-      <c r="B63" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B63" s="2">
+        <v>44069</v>
       </c>
       <c r="C63">
         <v>22.9</v>
@@ -2731,10 +2735,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>33</v>
-      </c>
-      <c r="B64" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="B64" s="2">
+        <v>44069</v>
       </c>
       <c r="C64">
         <v>20.5</v>
@@ -2748,10 +2752,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>34</v>
-      </c>
-      <c r="B65" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="B65" s="2">
+        <v>44069</v>
       </c>
       <c r="C65">
         <v>14.5</v>
@@ -2765,10 +2769,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B66" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B66" s="2">
+        <v>44069</v>
       </c>
       <c r="C66">
         <v>10.7</v>
@@ -2782,10 +2786,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>31</v>
-      </c>
-      <c r="B67" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="B67" s="2">
+        <v>44097</v>
       </c>
       <c r="C67">
         <v>28</v>
@@ -2799,10 +2803,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>32</v>
-      </c>
-      <c r="B68" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="B68" s="2">
+        <v>44097</v>
       </c>
       <c r="C68">
         <v>27.7</v>
@@ -2816,10 +2820,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="B69" s="2">
+        <v>44097</v>
       </c>
       <c r="C69">
         <v>19.8</v>
@@ -2833,10 +2837,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>34</v>
-      </c>
-      <c r="B70" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="B70" s="2">
+        <v>44097</v>
       </c>
       <c r="C70">
         <v>15</v>
@@ -2850,10 +2854,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>35</v>
-      </c>
-      <c r="B71" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="B71" s="2">
+        <v>44097</v>
       </c>
       <c r="C71">
         <v>8.699999999999999</v>
@@ -2867,10 +2871,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>31</v>
-      </c>
-      <c r="B72" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="B72" s="2">
+        <v>44125</v>
       </c>
       <c r="C72">
         <v>22.3</v>
@@ -2884,10 +2888,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>32</v>
-      </c>
-      <c r="B73" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B73" s="2">
+        <v>44125</v>
       </c>
       <c r="C73">
         <v>26.3</v>
@@ -2901,10 +2905,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>33</v>
-      </c>
-      <c r="B74" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="B74" s="2">
+        <v>44125</v>
       </c>
       <c r="C74">
         <v>24.7</v>
@@ -2918,10 +2922,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>34</v>
-      </c>
-      <c r="B75" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="B75" s="2">
+        <v>44125</v>
       </c>
       <c r="C75">
         <v>15.4</v>
@@ -2935,10 +2939,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B76" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="B76" s="2">
+        <v>44125</v>
       </c>
       <c r="C76">
         <v>11</v>
@@ -2952,10 +2956,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>31</v>
-      </c>
-      <c r="B77" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="B77" s="2">
+        <v>44141</v>
       </c>
       <c r="C77">
         <v>29.9</v>
@@ -2969,10 +2973,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>32</v>
-      </c>
-      <c r="B78" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="B78" s="2">
+        <v>44141</v>
       </c>
       <c r="C78">
         <v>26.6</v>
@@ -2986,10 +2990,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>33</v>
-      </c>
-      <c r="B79" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="B79" s="2">
+        <v>44141</v>
       </c>
       <c r="C79">
         <v>23</v>
@@ -3003,10 +3007,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>34</v>
-      </c>
-      <c r="B80" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="B80" s="2">
+        <v>44141</v>
       </c>
       <c r="C80">
         <v>17.5</v>
@@ -3020,10 +3024,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>35</v>
-      </c>
-      <c r="B81" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="B81" s="2">
+        <v>44141</v>
       </c>
       <c r="C81">
         <v>14.3</v>
@@ -3037,10 +3041,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>31</v>
-      </c>
-      <c r="B82" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="B82" s="2">
+        <v>44160</v>
       </c>
       <c r="C82">
         <v>25.4</v>
@@ -3054,10 +3058,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>32</v>
-      </c>
-      <c r="B83" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="B83" s="2">
+        <v>44160</v>
       </c>
       <c r="C83">
         <v>26.7</v>
@@ -3071,10 +3075,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>33</v>
-      </c>
-      <c r="B84" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="B84" s="2">
+        <v>44160</v>
       </c>
       <c r="C84">
         <v>20.5</v>
@@ -3088,10 +3092,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>34</v>
-      </c>
-      <c r="B85" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="B85" s="2">
+        <v>44160</v>
       </c>
       <c r="C85">
         <v>18.3</v>
@@ -3105,10 +3109,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>35</v>
-      </c>
-      <c r="B86" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="B86" s="2">
+        <v>44160</v>
       </c>
       <c r="C86">
         <v>8.4</v>
@@ -3122,10 +3126,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>31</v>
-      </c>
-      <c r="B87" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="B87" s="2">
+        <v>44181</v>
       </c>
       <c r="C87">
         <v>33</v>
@@ -3139,10 +3143,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>32</v>
-      </c>
-      <c r="B88" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="B88" s="2">
+        <v>44181</v>
       </c>
       <c r="C88">
         <v>21.7</v>
@@ -3156,10 +3160,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>33</v>
-      </c>
-      <c r="B89" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="B89" s="2">
+        <v>44181</v>
       </c>
       <c r="C89">
         <v>24</v>
@@ -3173,10 +3177,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>34</v>
-      </c>
-      <c r="B90" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B90" s="2">
+        <v>44181</v>
       </c>
       <c r="C90">
         <v>16.6</v>
@@ -3190,10 +3194,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>35</v>
-      </c>
-      <c r="B91" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="B91" s="2">
+        <v>44181</v>
       </c>
       <c r="C91">
         <v>13.7</v>
@@ -3207,10 +3211,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>31</v>
-      </c>
-      <c r="B92" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="B92" s="2">
+        <v>44216</v>
       </c>
       <c r="C92">
         <v>28.7</v>
@@ -3224,10 +3228,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>32</v>
-      </c>
-      <c r="B93" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="B93" s="2">
+        <v>44216</v>
       </c>
       <c r="C93">
         <v>24.2</v>
@@ -3241,10 +3245,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>33</v>
-      </c>
-      <c r="B94" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="B94" s="2">
+        <v>44216</v>
       </c>
       <c r="C94">
         <v>19.4</v>
@@ -3258,10 +3262,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>34</v>
-      </c>
-      <c r="B95" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="B95" s="2">
+        <v>44216</v>
       </c>
       <c r="C95">
         <v>16.3</v>
@@ -3275,10 +3279,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>35</v>
-      </c>
-      <c r="B96" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="B96" s="2">
+        <v>44216</v>
       </c>
       <c r="C96">
         <v>14.8</v>
@@ -3292,10 +3296,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>31</v>
-      </c>
-      <c r="B97" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="B97" s="2">
+        <v>44244</v>
       </c>
       <c r="C97">
         <v>38.6</v>
@@ -3309,10 +3313,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>32</v>
-      </c>
-      <c r="B98" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="B98" s="2">
+        <v>44244</v>
       </c>
       <c r="C98">
         <v>27.4</v>
@@ -3326,10 +3330,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>33</v>
-      </c>
-      <c r="B99" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="B99" s="2">
+        <v>44244</v>
       </c>
       <c r="C99">
         <v>24</v>
@@ -3343,10 +3347,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>34</v>
-      </c>
-      <c r="B100" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="B100" s="2">
+        <v>44244</v>
       </c>
       <c r="C100">
         <v>17.3</v>
@@ -3360,10 +3364,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>35</v>
-      </c>
-      <c r="B101" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="B101" s="2">
+        <v>44244</v>
       </c>
       <c r="C101">
         <v>17.2</v>
@@ -3377,10 +3381,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>31</v>
-      </c>
-      <c r="B102" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="B102" s="2">
+        <v>44272</v>
       </c>
       <c r="C102">
         <v>31.4</v>
@@ -3394,10 +3398,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>32</v>
-      </c>
-      <c r="B103" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="B103" s="2">
+        <v>44272</v>
       </c>
       <c r="C103">
         <v>25.8</v>
@@ -3411,10 +3415,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>33</v>
-      </c>
-      <c r="B104" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="B104" s="2">
+        <v>44272</v>
       </c>
       <c r="C104">
         <v>24.8</v>
@@ -3428,10 +3432,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>34</v>
-      </c>
-      <c r="B105" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="B105" s="2">
+        <v>44272</v>
       </c>
       <c r="C105">
         <v>16.8</v>
@@ -3445,10 +3449,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>35</v>
-      </c>
-      <c r="B106" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="B106" s="2">
+        <v>44272</v>
       </c>
       <c r="C106">
         <v>12.7</v>
@@ -3475,7 +3479,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3492,10 +3496,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>19.4</v>
@@ -3509,10 +3513,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>22.4</v>
@@ -3526,10 +3530,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>17.6</v>
@@ -3543,10 +3547,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>22.8</v>
@@ -3560,10 +3564,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>22.6</v>
@@ -3577,10 +3581,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>26.4</v>
@@ -3594,10 +3598,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>17.9</v>
@@ -3611,10 +3615,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>19.3</v>
@@ -3628,10 +3632,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>17.9</v>
@@ -3645,10 +3649,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>26.1</v>
@@ -3662,10 +3666,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>22.9</v>
@@ -3679,10 +3683,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>21.6</v>
@@ -3696,10 +3700,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>17.8</v>
@@ -3713,10 +3717,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>22.8</v>
@@ -3730,10 +3734,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>17.5</v>
@@ -3747,10 +3751,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>26</v>
@@ -3764,10 +3768,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>22.8</v>
@@ -3781,10 +3785,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>16.8</v>
@@ -3798,10 +3802,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>17.6</v>
@@ -3815,10 +3819,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>15.3</v>
@@ -3832,10 +3836,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <v>18.1</v>
@@ -3849,10 +3853,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C23">
         <v>17</v>
@@ -3866,10 +3870,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>15.8</v>
@@ -3883,10 +3887,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C25">
         <v>15.2</v>
@@ -3900,10 +3904,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C26">
         <v>16.7</v>
@@ -3917,10 +3921,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>16.1</v>
@@ -3934,10 +3938,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>18.9</v>
@@ -3951,10 +3955,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>14.9</v>
@@ -3968,10 +3972,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>24.9</v>
@@ -3985,10 +3989,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>24.9</v>
@@ -4002,10 +4006,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>20.5</v>
@@ -4019,10 +4023,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C33">
         <v>15.3</v>
@@ -4036,10 +4040,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C34">
         <v>17.2</v>
@@ -4053,10 +4057,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C35">
         <v>19.3</v>
@@ -4070,10 +4074,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C36">
         <v>20.5</v>
@@ -4087,10 +4091,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C37">
         <v>14.6</v>
@@ -4104,10 +4108,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C38">
         <v>21.5</v>
@@ -4121,10 +4125,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C39">
         <v>18.3</v>
@@ -4138,10 +4142,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C40">
         <v>15.9</v>
@@ -4155,10 +4159,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C41">
         <v>28.3</v>
@@ -4172,10 +4176,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C42">
         <v>16.3</v>
@@ -4189,10 +4193,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C43">
         <v>19.8</v>
@@ -4206,10 +4210,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C44">
         <v>13.3</v>
@@ -4223,10 +4227,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C45">
         <v>13.5</v>
@@ -4240,10 +4244,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>15.3</v>
@@ -4257,10 +4261,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C47">
         <v>18</v>
@@ -4274,10 +4278,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C48">
         <v>17.7</v>
@@ -4291,10 +4295,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C49">
         <v>15.3</v>
@@ -4308,10 +4312,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C50">
         <v>15.8</v>
@@ -4325,10 +4329,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C51">
         <v>12.2</v>
@@ -4342,10 +4346,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C52">
         <v>20.7</v>
@@ -4359,10 +4363,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C53">
         <v>18.9</v>
@@ -4376,10 +4380,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C54">
         <v>20.4</v>
@@ -4393,10 +4397,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C55">
         <v>21.3</v>
@@ -4410,10 +4414,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C56">
         <v>19.6</v>
@@ -4427,10 +4431,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C57">
         <v>19.2</v>
@@ -4444,10 +4448,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C58">
         <v>18.3</v>
@@ -4461,10 +4465,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C59">
         <v>16</v>
@@ -4478,10 +4482,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C60">
         <v>20.1</v>
@@ -4495,10 +4499,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C61">
         <v>19.2</v>
@@ -4512,10 +4516,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C62">
         <v>17.8</v>
@@ -4529,10 +4533,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C63">
         <v>16.9</v>
@@ -4546,10 +4550,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C64">
         <v>17.7</v>
@@ -4563,10 +4567,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C65">
         <v>13.8</v>
@@ -4580,10 +4584,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C66">
         <v>22.1</v>
@@ -4597,10 +4601,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C67">
         <v>17.5</v>
@@ -4614,10 +4618,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C68">
         <v>23</v>
@@ -4631,10 +4635,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C69">
         <v>17.5</v>
@@ -4648,10 +4652,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C70">
         <v>15.4</v>
@@ -4665,10 +4669,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C71">
         <v>12.6</v>
@@ -4682,10 +4686,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C72">
         <v>17.6</v>
@@ -4699,10 +4703,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C73">
         <v>19.3</v>
@@ -4716,10 +4720,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C74">
         <v>15.9</v>
@@ -4733,10 +4737,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C75">
         <v>16.9</v>
@@ -4750,10 +4754,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C76">
         <v>20.6</v>
@@ -4767,10 +4771,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C77">
         <v>16</v>
@@ -4784,10 +4788,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C78">
         <v>18.9</v>
@@ -4801,10 +4805,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C79">
         <v>19.7</v>
@@ -4818,10 +4822,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C80">
         <v>15.6</v>
@@ -4835,10 +4839,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C81">
         <v>14.9</v>
@@ -4852,10 +4856,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C82">
         <v>17.6</v>
@@ -4869,10 +4873,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C83">
         <v>18.6</v>
@@ -4886,10 +4890,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C84">
         <v>15.2</v>
@@ -4903,10 +4907,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C85">
         <v>14.5</v>
@@ -4920,10 +4924,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>18</v>
@@ -4937,10 +4941,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>13.6</v>
@@ -4954,10 +4958,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>15.3</v>
@@ -4971,10 +4975,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>25</v>
@@ -4988,10 +4992,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>23.6</v>
@@ -5005,10 +5009,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>20.6</v>
@@ -5022,10 +5026,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>11.7</v>
@@ -5039,10 +5043,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <v>13.1</v>
@@ -5056,10 +5060,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>11.9</v>
@@ -5073,10 +5077,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C95">
         <v>19.4</v>
@@ -5090,10 +5094,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>10.6</v>
@@ -5107,10 +5111,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>13.6</v>
@@ -5124,10 +5128,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C98">
         <v>18.8</v>
@@ -5141,10 +5145,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C99">
         <v>13.9</v>
@@ -5158,10 +5162,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C100">
         <v>13.3</v>
@@ -5175,10 +5179,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C101">
         <v>15.5</v>
@@ -5192,10 +5196,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C102">
         <v>18.4</v>
@@ -5209,10 +5213,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C103">
         <v>17.6</v>
@@ -5226,10 +5230,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C104">
         <v>16.6</v>
@@ -5243,10 +5247,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C105">
         <v>8.1</v>
@@ -5260,10 +5264,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C106">
         <v>13.5</v>
@@ -5277,10 +5281,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C107">
         <v>12.2</v>
@@ -5294,10 +5298,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C108">
         <v>16.7</v>
@@ -5311,10 +5315,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C109">
         <v>17.8</v>
@@ -5328,10 +5332,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" t="s">
         <v>37</v>
-      </c>
-      <c r="B110" t="s">
-        <v>15</v>
       </c>
       <c r="C110">
         <v>14.4</v>
@@ -5345,10 +5349,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C111">
         <v>15.6</v>
@@ -5362,10 +5366,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C112">
         <v>12.3</v>
@@ -5379,10 +5383,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C113">
         <v>15.2</v>
@@ -5396,10 +5400,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C114">
         <v>19.7</v>
@@ -5413,10 +5417,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C115">
         <v>15.3</v>
@@ -5430,10 +5434,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C116">
         <v>14.3</v>
@@ -5447,10 +5451,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C117">
         <v>16.2</v>
@@ -5464,10 +5468,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C118">
         <v>17.2</v>
@@ -5481,10 +5485,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C119">
         <v>10.8</v>
@@ -5498,10 +5502,10 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C120">
         <v>14</v>
@@ -5515,10 +5519,10 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C121">
         <v>16.3</v>
@@ -5532,10 +5536,10 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C122">
         <v>19.8</v>
@@ -5549,10 +5553,10 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
+        <v>17</v>
+      </c>
+      <c r="B123" t="s">
         <v>38</v>
-      </c>
-      <c r="B123" t="s">
-        <v>16</v>
       </c>
       <c r="C123">
         <v>19.7</v>
@@ -5566,10 +5570,10 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C124">
         <v>19.4</v>
@@ -5583,10 +5587,10 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C125">
         <v>16.3</v>
@@ -5600,10 +5604,10 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C126">
         <v>20</v>
@@ -5617,10 +5621,10 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C127">
         <v>20.4</v>
@@ -5634,10 +5638,10 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C128">
         <v>12.7</v>
@@ -5651,10 +5655,10 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C129">
         <v>12.5</v>
@@ -5668,10 +5672,10 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C130">
         <v>11.7</v>
@@ -5685,10 +5689,10 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C131">
         <v>16.9</v>
@@ -5702,10 +5706,10 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C132">
         <v>16.8</v>
@@ -5719,10 +5723,10 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C133">
         <v>14.2</v>
@@ -5736,10 +5740,10 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B134" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C134">
         <v>19.07518</v>
@@ -5753,10 +5757,10 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C135">
         <v>11.69385</v>
@@ -5770,10 +5774,10 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136" t="s">
         <v>39</v>
-      </c>
-      <c r="B136" t="s">
-        <v>17</v>
       </c>
       <c r="C136">
         <v>13.2825</v>
@@ -5787,10 +5791,10 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B137" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C137">
         <v>22.88262</v>
@@ -5804,10 +5808,10 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C138">
         <v>21.02769</v>
@@ -5821,10 +5825,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C139">
         <v>17.62598</v>
@@ -5838,10 +5842,10 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B140" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C140">
         <v>14.46899</v>
@@ -5855,10 +5859,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B141" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C141">
         <v>20.05544</v>
@@ -5872,10 +5876,10 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B142" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C142">
         <v>14.53234</v>
@@ -5889,10 +5893,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B143" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C143">
         <v>17.11833</v>
@@ -5906,10 +5910,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B144" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C144">
         <v>16.37316</v>
@@ -5923,10 +5927,10 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B145" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C145">
         <v>18.40436</v>
@@ -5940,10 +5944,10 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C146">
         <v>14.9</v>
@@ -5957,10 +5961,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C147">
         <v>14.6</v>
@@ -5974,10 +5978,10 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C148">
         <v>12</v>
@@ -5991,10 +5995,10 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149" t="s">
         <v>40</v>
-      </c>
-      <c r="B149" t="s">
-        <v>18</v>
       </c>
       <c r="C149">
         <v>14.7</v>
@@ -6008,10 +6012,10 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C150">
         <v>26.9</v>
@@ -6025,10 +6029,10 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C151">
         <v>23.9</v>
@@ -6042,10 +6046,10 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C152">
         <v>23.9</v>
@@ -6059,10 +6063,10 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C153">
         <v>13.8</v>
@@ -6076,10 +6080,10 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C154">
         <v>16.8</v>
@@ -6093,10 +6097,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C155">
         <v>17.4</v>
@@ -6110,10 +6114,10 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C156">
         <v>14.7</v>
@@ -6127,10 +6131,10 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C157">
         <v>14.9</v>
@@ -6144,10 +6148,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B158" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C158">
         <v>18.4</v>
@@ -6161,10 +6165,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B159" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C159">
         <v>18.2</v>
@@ -6178,10 +6182,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B160" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C160">
         <v>18.8</v>
@@ -6195,10 +6199,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B161" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C161">
         <v>18.1</v>
@@ -6212,10 +6216,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
+        <v>20</v>
+      </c>
+      <c r="B162" t="s">
         <v>41</v>
-      </c>
-      <c r="B162" t="s">
-        <v>19</v>
       </c>
       <c r="C162">
         <v>22.4</v>
@@ -6229,10 +6233,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B163" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C163">
         <v>15</v>
@@ -6246,10 +6250,10 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B164" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C164">
         <v>23.7</v>
@@ -6263,10 +6267,10 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B165" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C165">
         <v>16.9</v>
@@ -6280,10 +6284,10 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B166" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C166">
         <v>18.9</v>
@@ -6297,10 +6301,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B167" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C167">
         <v>22.5</v>
@@ -6314,10 +6318,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B168" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C168">
         <v>14.2</v>
@@ -6331,10 +6335,10 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B169" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C169">
         <v>11</v>
@@ -6348,10 +6352,10 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B170" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C170">
         <v>16.9</v>
@@ -6365,10 +6369,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B171" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C171">
         <v>13.2</v>
@@ -6382,10 +6386,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B172" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C172">
         <v>15.3</v>
@@ -6399,10 +6403,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B173" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C173">
         <v>23.3</v>
@@ -6416,10 +6420,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B174" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C174">
         <v>23.3</v>
@@ -6433,10 +6437,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
+        <v>21</v>
+      </c>
+      <c r="B175" t="s">
         <v>42</v>
-      </c>
-      <c r="B175" t="s">
-        <v>20</v>
       </c>
       <c r="C175">
         <v>20.9</v>
@@ -6450,10 +6454,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B176" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C176">
         <v>16.4</v>
@@ -6467,10 +6471,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B177" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C177">
         <v>21.5</v>
@@ -6484,10 +6488,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B178" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C178">
         <v>14.5</v>
@@ -6501,10 +6505,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B179" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C179">
         <v>22</v>
@@ -6518,10 +6522,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B180" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C180">
         <v>20.1</v>
@@ -6535,10 +6539,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B181" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C181">
         <v>20.6</v>
@@ -6552,10 +6556,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B182" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C182">
         <v>17.4</v>
@@ -6569,10 +6573,10 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B183" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C183">
         <v>14.5</v>
@@ -6586,10 +6590,10 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B184" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C184">
         <v>23</v>
@@ -6603,10 +6607,10 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B185" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C185">
         <v>33.1</v>
@@ -6620,10 +6624,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B186" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C186">
         <v>23.7</v>
@@ -6637,10 +6641,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B187" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C187">
         <v>21.9</v>
@@ -6654,10 +6658,10 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
+        <v>22</v>
+      </c>
+      <c r="B188" t="s">
         <v>43</v>
-      </c>
-      <c r="B188" t="s">
-        <v>21</v>
       </c>
       <c r="C188">
         <v>22.4</v>
@@ -6671,10 +6675,10 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B189" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C189">
         <v>22.8</v>
@@ -6688,10 +6692,10 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B190" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C190">
         <v>20.5</v>
@@ -6705,10 +6709,10 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B191" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C191">
         <v>16.5</v>
@@ -6722,10 +6726,10 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B192" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C192">
         <v>17.9</v>
@@ -6739,10 +6743,10 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B193" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C193">
         <v>25.1</v>
@@ -6756,10 +6760,10 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B194" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C194">
         <v>18.4</v>
@@ -6773,10 +6777,10 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B195" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C195">
         <v>15.4</v>
@@ -6790,10 +6794,10 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B196" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C196">
         <v>16.4</v>
@@ -6807,10 +6811,10 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B197" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C197">
         <v>21.9</v>
@@ -6824,10 +6828,10 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B198" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C198">
         <v>25.7</v>
@@ -6841,10 +6845,10 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B199" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C199">
         <v>18.5</v>
@@ -6858,10 +6862,10 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B200" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C200">
         <v>10.1</v>
@@ -6875,10 +6879,10 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
+        <v>23</v>
+      </c>
+      <c r="B201" t="s">
         <v>44</v>
-      </c>
-      <c r="B201" t="s">
-        <v>22</v>
       </c>
       <c r="C201">
         <v>17.6</v>
@@ -6892,10 +6896,10 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B202" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C202">
         <v>15.3</v>
@@ -6909,10 +6913,10 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B203" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C203">
         <v>18.6</v>
@@ -6926,10 +6930,10 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B204" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C204">
         <v>15.9</v>
@@ -6943,10 +6947,10 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B205" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C205">
         <v>25.8</v>
@@ -6960,10 +6964,10 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B206" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C206">
         <v>16.7</v>
@@ -6977,10 +6981,10 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B207" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C207">
         <v>15.9</v>
@@ -6994,10 +6998,10 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B208" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C208">
         <v>19.4</v>
@@ -7011,10 +7015,10 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B209" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C209">
         <v>27.9</v>
@@ -7028,10 +7032,10 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B210" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C210">
         <v>29</v>
@@ -7045,10 +7049,10 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B211" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C211">
         <v>19.8</v>
@@ -7062,10 +7066,10 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B212" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C212">
         <v>17.3</v>
@@ -7079,10 +7083,10 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B213" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C213">
         <v>14.8</v>
@@ -7096,10 +7100,10 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
+        <v>24</v>
+      </c>
+      <c r="B214" t="s">
         <v>45</v>
-      </c>
-      <c r="B214" t="s">
-        <v>23</v>
       </c>
       <c r="C214">
         <v>15.6</v>
@@ -7113,10 +7117,10 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B215" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C215">
         <v>23.6</v>
@@ -7130,10 +7134,10 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B216" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C216">
         <v>22.6</v>
@@ -7147,10 +7151,10 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B217" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C217">
         <v>20.2</v>
@@ -7164,10 +7168,10 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B218" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C218">
         <v>21.1</v>
@@ -7181,10 +7185,10 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B219" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C219">
         <v>13.6</v>
@@ -7198,10 +7202,10 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B220" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C220">
         <v>19.2</v>
@@ -7215,10 +7219,10 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B221" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C221">
         <v>22.7</v>
@@ -7232,10 +7236,10 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B222" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C222">
         <v>20</v>
@@ -7249,10 +7253,10 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B223" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C223">
         <v>19.3</v>
@@ -7266,10 +7270,10 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B224" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C224">
         <v>22.8</v>
@@ -7283,10 +7287,10 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B225" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C225">
         <v>22.7</v>
@@ -7300,10 +7304,10 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B226" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C226">
         <v>17.8</v>
@@ -7317,10 +7321,10 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
+        <v>25</v>
+      </c>
+      <c r="B227" t="s">
         <v>46</v>
-      </c>
-      <c r="B227" t="s">
-        <v>24</v>
       </c>
       <c r="C227">
         <v>19</v>
@@ -7334,10 +7338,10 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B228" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C228">
         <v>14.7</v>
@@ -7351,10 +7355,10 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B229" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C229">
         <v>18.4</v>
@@ -7368,10 +7372,10 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B230" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C230">
         <v>24.1</v>
@@ -7385,10 +7389,10 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B231" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C231">
         <v>23.7</v>
@@ -7402,10 +7406,10 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B232" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C232">
         <v>28.8</v>
@@ -7419,10 +7423,10 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B233" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C233">
         <v>20.5</v>
@@ -7436,10 +7440,10 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B234" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C234">
         <v>27.5</v>
@@ -7453,10 +7457,10 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B235" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C235">
         <v>25.4</v>
@@ -7470,10 +7474,10 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B236" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C236">
         <v>14.9</v>
@@ -7487,10 +7491,10 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B237" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C237">
         <v>15.8</v>
@@ -7504,10 +7508,10 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B238" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C238">
         <v>20.1</v>
@@ -7521,10 +7525,10 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B239" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C239">
         <v>22.4</v>
@@ -7538,10 +7542,10 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
+        <v>26</v>
+      </c>
+      <c r="B240" t="s">
         <v>47</v>
-      </c>
-      <c r="B240" t="s">
-        <v>25</v>
       </c>
       <c r="C240">
         <v>23.7</v>
@@ -7555,10 +7559,10 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B241" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C241">
         <v>20.2</v>
@@ -7572,10 +7576,10 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B242" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C242">
         <v>21.4</v>
@@ -7589,10 +7593,10 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B243" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C243">
         <v>20.3</v>
@@ -7606,10 +7610,10 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B244" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C244">
         <v>24.1</v>
@@ -7623,10 +7627,10 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B245" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C245">
         <v>24.3</v>
@@ -7640,10 +7644,10 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B246" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C246">
         <v>29.1</v>
@@ -7657,10 +7661,10 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B247" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C247">
         <v>24.6</v>
@@ -7674,10 +7678,10 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B248" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C248">
         <v>14.4</v>
@@ -7691,10 +7695,10 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B249" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C249">
         <v>15.8</v>
@@ -7708,10 +7712,10 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B250" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C250">
         <v>18.7</v>
@@ -7725,10 +7729,10 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B251" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C251">
         <v>18.7</v>
@@ -7742,10 +7746,10 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B252" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C252">
         <v>21.6</v>
@@ -7759,10 +7763,10 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
+        <v>27</v>
+      </c>
+      <c r="B253" t="s">
         <v>48</v>
-      </c>
-      <c r="B253" t="s">
-        <v>26</v>
       </c>
       <c r="C253">
         <v>12.5</v>
